--- a/Consultant_Active_Reports/Active_Candidates_Charlotte_Wells.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Charlotte_Wells.xlsx
@@ -597,16 +597,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Matilda  Immonen</t>
+          <t>Edouard  Carakehian</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45973</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="7">
@@ -653,16 +653,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Edouard  Carakehian</t>
+          <t>Matilda  Immonen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45987</v>
+        <v>45973</v>
       </c>
     </row>
     <row r="9">

--- a/Consultant_Active_Reports/Active_Candidates_Charlotte_Wells.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Charlotte_Wells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -612,24 +612,74 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>853</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Laurel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Customer Success Manager UK</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Regitze Steffensen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CV Sent</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>865</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Accel Data</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Enterprise Account Executive</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Daniel Wing</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>865</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Accel Data</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Enterprise Account Executive</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nicholas Lomas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
